--- a/planning enzo/Testplan.xlsx
+++ b/planning enzo/Testplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\ProjectBierHier\planning enzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Wat?</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Getest, ja/nee? Zo ja, wanneer?</t>
+  </si>
+  <si>
+    <t>Er is nog geen welkomstekst</t>
+  </si>
+  <si>
+    <t>"Sportevenementen" ontbreekt nog</t>
   </si>
 </sst>
 </file>
@@ -124,12 +130,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +439,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -443,96 +460,160 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>42284</v>
       </c>
+      <c r="D2" s="3">
+        <v>42287</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>42286</v>
       </c>
+      <c r="D3" s="3">
+        <v>42287</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>42284</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>42286</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>42282</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>42284</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>42286</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>42282</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>42286</v>
       </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>42286</v>
       </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning enzo/Testplan.xlsx
+++ b/planning enzo/Testplan.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\workspace\ProjectBierHier\planning enzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Wat?</t>
   </si>
@@ -41,15 +44,9 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>Nino</t>
-  </si>
-  <si>
     <t>Cihan</t>
   </si>
   <si>
-    <t>Bilal</t>
-  </si>
-  <si>
     <t>Code opruimen</t>
   </si>
   <si>
@@ -87,6 +84,24 @@
   </si>
   <si>
     <t>"Sportevenementen" ontbreekt nog</t>
+  </si>
+  <si>
+    <t>Werkt naar behoren.</t>
+  </si>
+  <si>
+    <t>Is compleet.</t>
+  </si>
+  <si>
+    <t>Voldoet aan alle eisen.</t>
+  </si>
+  <si>
+    <t>Alle nodige info zit erin.</t>
+  </si>
+  <si>
+    <t>n.v.t</t>
+  </si>
+  <si>
+    <t>n.v.t.</t>
   </si>
 </sst>
 </file>
@@ -151,8 +166,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -461,31 +504,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>42284</v>
+        <v>42289</v>
       </c>
       <c r="D2" s="3">
-        <v>42287</v>
+        <v>42289</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>42286</v>
+        <v>42289</v>
       </c>
       <c r="D3" s="3">
-        <v>42287</v>
+        <v>42289</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -493,127 +536,132 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42289</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42289</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>42284</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>42289</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42289</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
-        <v>42286</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>42289</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42289</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42286</v>
+      </c>
+      <c r="D8" s="3">
+        <v>42287</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3">
-        <v>42282</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>42284</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>42286</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42287</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>42286</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>42289</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42288</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42289</v>
+      </c>
+      <c r="D11" s="3">
+        <v>42288</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>42282</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>42289</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42288</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42286</v>
-      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42286</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning enzo/Testplan.xlsx
+++ b/planning enzo/Testplan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Wat?</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Alle nodige info zit erin.</t>
-  </si>
-  <si>
-    <t>n.v.t</t>
   </si>
   <si>
     <t>n.v.t.</t>
@@ -473,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +635,7 @@
         <v>42288</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,7 +650,7 @@
         <v>42288</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/planning enzo/Testplan.xlsx
+++ b/planning enzo/Testplan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Wat?</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Er is nog geen welkomstekst</t>
-  </si>
-  <si>
-    <t>"Sportevenementen" ontbreekt nog</t>
   </si>
   <si>
     <t>Werkt naar behoren.</t>
@@ -470,7 +467,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +510,7 @@
         <v>42289</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,7 +525,7 @@
         <v>42289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,7 +540,7 @@
         <v>42289</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,7 +555,7 @@
         <v>42289</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,7 +570,7 @@
         <v>42289</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,13 +596,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>42286</v>
+        <v>42288</v>
       </c>
       <c r="D9" s="3">
-        <v>42287</v>
+        <v>42288</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +617,7 @@
         <v>42288</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +632,7 @@
         <v>42288</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,7 +647,7 @@
         <v>42288</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
